--- a/qss设计/qss统一设计.xlsx
+++ b/qss设计/qss统一设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proAll\102.doc\trunk\qss设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28CF382-D54C-4080-BC3A-8842CE2F4BFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E89FC5-8416-488A-8187-0869E52BB06C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="80">
   <si>
     <t>新增属性</t>
   </si>
@@ -308,6 +308,14 @@
   </si>
   <si>
     <t>mustinput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>devdept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,6 +432,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -432,12 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,7 +761,7 @@
       <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -764,7 +772,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -776,7 +784,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -785,7 +793,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -794,7 +802,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
@@ -803,7 +811,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -817,7 +825,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="5"/>
       <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
@@ -829,7 +837,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="5"/>
       <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1087,6 +1095,17 @@
         <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>14</v>
       </c>
     </row>
